--- a/◆手術室配置管理システム.xlsx
+++ b/◆手術室配置管理システム.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Overall" sheetId="1" r:id="rId1"/>
     <sheet name="画面遷移" sheetId="2" r:id="rId2"/>
-    <sheet name="テーブル仕様" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
+    <sheet name="テーブル仕様" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="94">
   <si>
     <t>１．目的</t>
     <rPh sb="2" eb="4">
@@ -1215,6 +1216,33 @@
       <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VIO</t>
+  </si>
+  <si>
+    <t>フォーストライアド</t>
+  </si>
+  <si>
+    <t>バ</t>
+  </si>
+  <si>
+    <t>大台</t>
+  </si>
+  <si>
+    <t>メーヨー台</t>
+  </si>
+  <si>
+    <t>ベ</t>
+  </si>
+  <si>
+    <t>ケ</t>
+  </si>
+  <si>
+    <t>プレキシパル</t>
+  </si>
+  <si>
+    <t>ウ</t>
   </si>
 </sst>
 </file>
@@ -1572,22 +1600,22 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1723,7 +1751,7 @@
         <xdr:cNvPr id="2" name="矢印: 五方向 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1807,7 +1835,7 @@
         <xdr:cNvPr id="3" name="矢印: 五方向 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1891,7 +1919,7 @@
         <xdr:cNvPr id="4" name="矢印: 五方向 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1975,7 +2003,7 @@
         <xdr:cNvPr id="5" name="矢印: 五方向 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2064,7 +2092,7 @@
         <xdr:cNvPr id="18" name="正方形/長方形 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000012000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2134,7 +2162,7 @@
         <xdr:cNvPr id="2" name="正方形/長方形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2204,7 +2232,7 @@
         <xdr:cNvPr id="3" name="テキスト ボックス 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2275,7 +2303,7 @@
         <xdr:cNvPr id="4" name="テキスト ボックス 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2347,7 +2375,7 @@
         <xdr:cNvPr id="5" name="テキスト ボックス 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2419,7 +2447,7 @@
         <xdr:cNvPr id="6" name="テキスト ボックス 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2491,7 +2519,7 @@
         <xdr:cNvPr id="7" name="テキスト ボックス 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2563,7 +2591,7 @@
         <xdr:cNvPr id="8" name="Text Box 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2688,7 +2716,7 @@
         <xdr:cNvPr id="9" name="図 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000009000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2732,7 +2760,7 @@
         <xdr:cNvPr id="10" name="吹き出し: 四角形 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2852,7 +2880,7 @@
         <xdr:cNvPr id="11" name="吹き出し: 四角形 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2932,7 +2960,7 @@
         <xdr:cNvPr id="12" name="吹き出し: 四角形 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3012,7 +3040,7 @@
         <xdr:cNvPr id="13" name="吹き出し: 四角形 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3097,7 +3125,7 @@
                   <a14:compatExt spid="_x0000_s2049"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000001080000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3147,7 +3175,7 @@
                   <a14:compatExt spid="_x0000_s2050"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002080000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3200,7 +3228,7 @@
         <xdr:cNvPr id="16" name="Text Box 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000010000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3330,7 +3358,7 @@
                   <a14:compatExt spid="_x0000_s2051"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003080000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3388,7 +3416,7 @@
                   <a14:compatExt spid="_x0000_s2052"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004080000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3446,7 +3474,7 @@
                   <a14:compatExt spid="_x0000_s2053"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005080000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3504,7 +3532,7 @@
                   <a14:compatExt spid="_x0000_s2054"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000006080000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3573,7 +3601,7 @@
                   <a14:compatExt spid="_x0000_s2055"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000007080000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3642,7 +3670,7 @@
                   <a14:compatExt spid="_x0000_s2056"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000008080000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3706,7 +3734,7 @@
         <xdr:cNvPr id="14" name="正方形/長方形 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3772,7 +3800,7 @@
         <xdr:cNvPr id="24" name="吹き出し: 四角形 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000018000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3892,7 +3920,7 @@
         <xdr:cNvPr id="25" name="正方形/長方形 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000019000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3958,7 +3986,7 @@
         <xdr:cNvPr id="26" name="吹き出し: 四角形 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4038,7 +4066,7 @@
         <xdr:cNvPr id="27" name="正方形/長方形 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4104,7 +4132,7 @@
         <xdr:cNvPr id="28" name="吹き出し: 四角形 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4209,7 +4237,7 @@
                   <a14:compatExt spid="_x0000_s2063"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000F080000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4278,7 +4306,7 @@
                   <a14:compatExt spid="_x0000_s2064"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000010080000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4347,7 +4375,7 @@
                   <a14:compatExt spid="_x0000_s2065"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000011080000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4396,22 +4424,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>228601</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
+      <xdr:colOff>166969</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>160246</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>236221</xdr:colOff>
+      <xdr:colOff>174589</xdr:colOff>
       <xdr:row>75</xdr:row>
-      <xdr:rowOff>125387</xdr:rowOff>
+      <xdr:rowOff>7726</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="15" name="図 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4427,8 +4455,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="859632" y="11863389"/>
-          <a:ext cx="3162777" cy="3490092"/>
+          <a:off x="794498" y="11702305"/>
+          <a:ext cx="3145267" cy="3478186"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4455,7 +4483,7 @@
         <xdr:cNvPr id="17" name="図 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000011000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4499,7 +4527,7 @@
         <xdr:cNvPr id="37" name="正方形/長方形 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000025000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000025000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4565,7 +4593,7 @@
         <xdr:cNvPr id="20" name="矢印: 左カーブ 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000014000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4637,7 +4665,7 @@
         <xdr:cNvPr id="40" name="吹き出し: 四角形 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000028000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000028000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4757,7 +4785,7 @@
         <xdr:cNvPr id="38" name="正方形/長方形 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000026000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4832,7 +4860,7 @@
                   <a14:compatExt spid="_x0000_s2066"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000012080000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4901,7 +4929,7 @@
                   <a14:compatExt spid="_x0000_s2067"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000013080000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4970,7 +4998,7 @@
                   <a14:compatExt spid="_x0000_s2068"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000014080000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5029,7 +5057,7 @@
         <xdr:cNvPr id="42" name="図 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5068,7 +5096,7 @@
         <xdr:cNvPr id="43" name="図 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5117,7 +5145,7 @@
                   <a14:compatExt spid="_x0000_s2069"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000015080000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5170,7 +5198,7 @@
         <xdr:cNvPr id="48" name="吹き出し: 四角形 47">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000030000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000030000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5262,7 +5290,7 @@
                   <a14:compatExt spid="_x0000_s2070"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000016080000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5326,7 +5354,7 @@
         <xdr:cNvPr id="50" name="Text Box 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000032000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000032000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5396,7 +5424,7 @@
                   <a14:compatExt spid="_x0000_s2071"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000017080000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5454,7 +5482,7 @@
                   <a14:compatExt spid="_x0000_s2072"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000018080000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5507,7 +5535,7 @@
         <xdr:cNvPr id="53" name="正方形/長方形 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000035000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000035000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5573,7 +5601,7 @@
         <xdr:cNvPr id="19" name="矢印: 右カーブ 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000013000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5645,7 +5673,7 @@
         <xdr:cNvPr id="67" name="正方形/長方形 66">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000043000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000043000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5720,7 +5748,7 @@
                   <a14:compatExt spid="_x0000_s2079"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001F080000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001F080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5789,7 +5817,7 @@
                   <a14:compatExt spid="_x0000_s2080"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000020080000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000020080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5858,7 +5886,7 @@
                   <a14:compatExt spid="_x0000_s2081"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000021080000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000021080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5917,7 +5945,7 @@
         <xdr:cNvPr id="71" name="図 70">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000047000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000047000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5956,7 +5984,7 @@
         <xdr:cNvPr id="72" name="図 71">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000048000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000048000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6005,7 +6033,7 @@
                   <a14:compatExt spid="_x0000_s2082"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000022080000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000022080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6069,7 +6097,7 @@
         <xdr:cNvPr id="74" name="Text Box 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00004A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6139,7 +6167,7 @@
                   <a14:compatExt spid="_x0000_s2084"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000024080000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000024080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6192,7 +6220,7 @@
         <xdr:cNvPr id="80" name="Text Box 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000050000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000050000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6262,7 +6290,7 @@
                   <a14:compatExt spid="_x0000_s2085"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000025080000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000025080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6315,7 +6343,7 @@
         <xdr:cNvPr id="82" name="Text Box 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000052000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000052000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6375,7 +6403,7 @@
         <xdr:cNvPr id="22" name="Rectangle 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000016000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6443,7 +6471,7 @@
         <xdr:cNvPr id="68" name="Rectangle 67">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000044000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000044000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6508,7 +6536,7 @@
         <xdr:cNvPr id="69" name="Rectangle 68">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000045000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000045000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6581,7 +6609,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000017000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6642,7 +6670,7 @@
         <xdr:cNvPr id="70" name="Oval 69">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000046000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000046000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6703,7 +6731,7 @@
         <xdr:cNvPr id="73" name="Oval 72">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000049000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000049000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6759,7 +6787,7 @@
         <xdr:cNvPr id="29" name="Rectangle 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6802,7 +6830,7 @@
         <xdr:cNvPr id="75" name="Rectangle 74">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00004B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6875,7 +6903,7 @@
         <xdr:cNvPr id="31" name="Straight Arrow Connector 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6931,7 +6959,7 @@
         <xdr:cNvPr id="2057" name="Straight Arrow Connector 2056">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000009080000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6987,7 +7015,7 @@
         <xdr:cNvPr id="2059" name="Straight Arrow Connector 2058">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000B080000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7043,7 +7071,7 @@
         <xdr:cNvPr id="2073" name="Rounded Rectangle 2072">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000019080000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7086,6 +7114,55 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>159816</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="5829300" cy="6446316"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -7631,8 +7708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM138"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D44" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="AG65" sqref="AG65"/>
+    <sheetView showGridLines="0" topLeftCell="A58" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75"/>
@@ -7890,45 +7967,45 @@
       <c r="C30" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="38" t="s">
+      <c r="D30" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38" t="s">
+      <c r="E30" s="37"/>
+      <c r="F30" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="38" t="s">
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="J30" s="38"/>
-      <c r="K30" s="38"/>
-      <c r="L30" s="38" t="s">
+      <c r="J30" s="37"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="M30" s="38"/>
-      <c r="N30" s="38" t="s">
+      <c r="M30" s="37"/>
+      <c r="N30" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="O30" s="38"/>
-      <c r="P30" s="38" t="s">
+      <c r="O30" s="37"/>
+      <c r="P30" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="Q30" s="38"/>
-      <c r="R30" s="38"/>
-      <c r="S30" s="38"/>
-      <c r="T30" s="38"/>
-      <c r="U30" s="38" t="s">
+      <c r="Q30" s="37"/>
+      <c r="R30" s="37"/>
+      <c r="S30" s="37"/>
+      <c r="T30" s="37"/>
+      <c r="U30" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="V30" s="38"/>
-      <c r="W30" s="38"/>
-      <c r="X30" s="38" t="s">
+      <c r="V30" s="37"/>
+      <c r="W30" s="37"/>
+      <c r="X30" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="Y30" s="38"/>
-      <c r="Z30" s="38"/>
+      <c r="Y30" s="37"/>
+      <c r="Z30" s="37"/>
       <c r="AA30" s="10"/>
       <c r="AB30" s="11"/>
     </row>
@@ -7937,29 +8014,29 @@
       <c r="C31" s="16">
         <v>1</v>
       </c>
-      <c r="D31" s="35"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="36"/>
-      <c r="K31" s="37"/>
-      <c r="L31" s="35"/>
-      <c r="M31" s="37"/>
-      <c r="N31" s="35"/>
-      <c r="O31" s="37"/>
-      <c r="P31" s="35"/>
-      <c r="Q31" s="36"/>
-      <c r="R31" s="36"/>
-      <c r="S31" s="36"/>
-      <c r="T31" s="37"/>
-      <c r="U31" s="35"/>
-      <c r="V31" s="36"/>
-      <c r="W31" s="37"/>
-      <c r="X31" s="35"/>
-      <c r="Y31" s="36"/>
-      <c r="Z31" s="37"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="38"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="38"/>
+      <c r="O31" s="39"/>
+      <c r="P31" s="38"/>
+      <c r="Q31" s="40"/>
+      <c r="R31" s="40"/>
+      <c r="S31" s="40"/>
+      <c r="T31" s="39"/>
+      <c r="U31" s="38"/>
+      <c r="V31" s="40"/>
+      <c r="W31" s="39"/>
+      <c r="X31" s="38"/>
+      <c r="Y31" s="40"/>
+      <c r="Z31" s="39"/>
       <c r="AA31" s="10"/>
       <c r="AB31" s="11"/>
     </row>
@@ -7968,29 +8045,29 @@
       <c r="C32" s="16">
         <v>2</v>
       </c>
-      <c r="D32" s="35"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="35"/>
-      <c r="J32" s="36"/>
-      <c r="K32" s="37"/>
-      <c r="L32" s="35"/>
-      <c r="M32" s="37"/>
-      <c r="N32" s="35"/>
-      <c r="O32" s="37"/>
-      <c r="P32" s="35"/>
-      <c r="Q32" s="36"/>
-      <c r="R32" s="36"/>
-      <c r="S32" s="36"/>
-      <c r="T32" s="37"/>
-      <c r="U32" s="35"/>
-      <c r="V32" s="36"/>
-      <c r="W32" s="37"/>
-      <c r="X32" s="35"/>
-      <c r="Y32" s="36"/>
-      <c r="Z32" s="37"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="38"/>
+      <c r="O32" s="39"/>
+      <c r="P32" s="38"/>
+      <c r="Q32" s="40"/>
+      <c r="R32" s="40"/>
+      <c r="S32" s="40"/>
+      <c r="T32" s="39"/>
+      <c r="U32" s="38"/>
+      <c r="V32" s="40"/>
+      <c r="W32" s="39"/>
+      <c r="X32" s="38"/>
+      <c r="Y32" s="40"/>
+      <c r="Z32" s="39"/>
       <c r="AA32" s="10"/>
       <c r="AB32" s="11"/>
     </row>
@@ -7999,29 +8076,29 @@
       <c r="C33" s="16">
         <v>3</v>
       </c>
-      <c r="D33" s="35"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="37"/>
-      <c r="I33" s="35"/>
-      <c r="J33" s="36"/>
-      <c r="K33" s="37"/>
-      <c r="L33" s="35"/>
-      <c r="M33" s="37"/>
-      <c r="N33" s="35"/>
-      <c r="O33" s="37"/>
-      <c r="P33" s="35"/>
-      <c r="Q33" s="36"/>
-      <c r="R33" s="36"/>
-      <c r="S33" s="36"/>
-      <c r="T33" s="37"/>
-      <c r="U33" s="35"/>
-      <c r="V33" s="36"/>
-      <c r="W33" s="37"/>
-      <c r="X33" s="35"/>
-      <c r="Y33" s="36"/>
-      <c r="Z33" s="37"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="38"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="38"/>
+      <c r="O33" s="39"/>
+      <c r="P33" s="38"/>
+      <c r="Q33" s="40"/>
+      <c r="R33" s="40"/>
+      <c r="S33" s="40"/>
+      <c r="T33" s="39"/>
+      <c r="U33" s="38"/>
+      <c r="V33" s="40"/>
+      <c r="W33" s="39"/>
+      <c r="X33" s="38"/>
+      <c r="Y33" s="40"/>
+      <c r="Z33" s="39"/>
       <c r="AA33" s="10"/>
       <c r="AB33" s="11"/>
     </row>
@@ -8030,29 +8107,29 @@
       <c r="C34" s="16">
         <v>4</v>
       </c>
-      <c r="D34" s="35"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="37"/>
-      <c r="I34" s="35"/>
-      <c r="J34" s="36"/>
-      <c r="K34" s="37"/>
-      <c r="L34" s="35"/>
-      <c r="M34" s="37"/>
-      <c r="N34" s="35"/>
-      <c r="O34" s="37"/>
-      <c r="P34" s="35"/>
-      <c r="Q34" s="36"/>
-      <c r="R34" s="36"/>
-      <c r="S34" s="36"/>
-      <c r="T34" s="37"/>
-      <c r="U34" s="35"/>
-      <c r="V34" s="36"/>
-      <c r="W34" s="37"/>
-      <c r="X34" s="35"/>
-      <c r="Y34" s="36"/>
-      <c r="Z34" s="37"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="40"/>
+      <c r="K34" s="39"/>
+      <c r="L34" s="38"/>
+      <c r="M34" s="39"/>
+      <c r="N34" s="38"/>
+      <c r="O34" s="39"/>
+      <c r="P34" s="38"/>
+      <c r="Q34" s="40"/>
+      <c r="R34" s="40"/>
+      <c r="S34" s="40"/>
+      <c r="T34" s="39"/>
+      <c r="U34" s="38"/>
+      <c r="V34" s="40"/>
+      <c r="W34" s="39"/>
+      <c r="X34" s="38"/>
+      <c r="Y34" s="40"/>
+      <c r="Z34" s="39"/>
       <c r="AA34" s="10"/>
       <c r="AB34" s="11"/>
     </row>
@@ -8061,29 +8138,29 @@
       <c r="C35" s="16">
         <v>5</v>
       </c>
-      <c r="D35" s="35"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="37"/>
-      <c r="I35" s="35"/>
-      <c r="J35" s="36"/>
-      <c r="K35" s="37"/>
-      <c r="L35" s="35"/>
-      <c r="M35" s="37"/>
-      <c r="N35" s="35"/>
-      <c r="O35" s="37"/>
-      <c r="P35" s="35"/>
-      <c r="Q35" s="36"/>
-      <c r="R35" s="36"/>
-      <c r="S35" s="36"/>
-      <c r="T35" s="37"/>
-      <c r="U35" s="35"/>
-      <c r="V35" s="36"/>
-      <c r="W35" s="37"/>
-      <c r="X35" s="35"/>
-      <c r="Y35" s="36"/>
-      <c r="Z35" s="37"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="39"/>
+      <c r="L35" s="38"/>
+      <c r="M35" s="39"/>
+      <c r="N35" s="38"/>
+      <c r="O35" s="39"/>
+      <c r="P35" s="38"/>
+      <c r="Q35" s="40"/>
+      <c r="R35" s="40"/>
+      <c r="S35" s="40"/>
+      <c r="T35" s="39"/>
+      <c r="U35" s="38"/>
+      <c r="V35" s="40"/>
+      <c r="W35" s="39"/>
+      <c r="X35" s="38"/>
+      <c r="Y35" s="40"/>
+      <c r="Z35" s="39"/>
       <c r="AA35" s="10"/>
       <c r="AB35" s="11"/>
     </row>
@@ -8092,29 +8169,29 @@
       <c r="C36" s="16">
         <v>6</v>
       </c>
-      <c r="D36" s="35"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="37"/>
-      <c r="I36" s="35"/>
-      <c r="J36" s="36"/>
-      <c r="K36" s="37"/>
-      <c r="L36" s="35"/>
-      <c r="M36" s="37"/>
-      <c r="N36" s="35"/>
-      <c r="O36" s="37"/>
-      <c r="P36" s="35"/>
-      <c r="Q36" s="36"/>
-      <c r="R36" s="36"/>
-      <c r="S36" s="36"/>
-      <c r="T36" s="37"/>
-      <c r="U36" s="35"/>
-      <c r="V36" s="36"/>
-      <c r="W36" s="37"/>
-      <c r="X36" s="35"/>
-      <c r="Y36" s="36"/>
-      <c r="Z36" s="37"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="39"/>
+      <c r="I36" s="38"/>
+      <c r="J36" s="40"/>
+      <c r="K36" s="39"/>
+      <c r="L36" s="38"/>
+      <c r="M36" s="39"/>
+      <c r="N36" s="38"/>
+      <c r="O36" s="39"/>
+      <c r="P36" s="38"/>
+      <c r="Q36" s="40"/>
+      <c r="R36" s="40"/>
+      <c r="S36" s="40"/>
+      <c r="T36" s="39"/>
+      <c r="U36" s="38"/>
+      <c r="V36" s="40"/>
+      <c r="W36" s="39"/>
+      <c r="X36" s="38"/>
+      <c r="Y36" s="40"/>
+      <c r="Z36" s="39"/>
       <c r="AA36" s="10"/>
       <c r="AB36" s="11"/>
     </row>
@@ -8123,29 +8200,29 @@
       <c r="C37" s="16">
         <v>7</v>
       </c>
-      <c r="D37" s="35"/>
-      <c r="E37" s="37"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="37"/>
-      <c r="I37" s="35"/>
-      <c r="J37" s="36"/>
-      <c r="K37" s="37"/>
-      <c r="L37" s="35"/>
-      <c r="M37" s="37"/>
-      <c r="N37" s="35"/>
-      <c r="O37" s="37"/>
-      <c r="P37" s="35"/>
-      <c r="Q37" s="36"/>
-      <c r="R37" s="36"/>
-      <c r="S37" s="36"/>
-      <c r="T37" s="37"/>
-      <c r="U37" s="35"/>
-      <c r="V37" s="36"/>
-      <c r="W37" s="37"/>
-      <c r="X37" s="35"/>
-      <c r="Y37" s="36"/>
-      <c r="Z37" s="37"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="39"/>
+      <c r="L37" s="38"/>
+      <c r="M37" s="39"/>
+      <c r="N37" s="38"/>
+      <c r="O37" s="39"/>
+      <c r="P37" s="38"/>
+      <c r="Q37" s="40"/>
+      <c r="R37" s="40"/>
+      <c r="S37" s="40"/>
+      <c r="T37" s="39"/>
+      <c r="U37" s="38"/>
+      <c r="V37" s="40"/>
+      <c r="W37" s="39"/>
+      <c r="X37" s="38"/>
+      <c r="Y37" s="40"/>
+      <c r="Z37" s="39"/>
       <c r="AA37" s="10"/>
       <c r="AB37" s="11"/>
     </row>
@@ -8154,29 +8231,29 @@
       <c r="C38" s="16">
         <v>8</v>
       </c>
-      <c r="D38" s="35"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="35"/>
-      <c r="J38" s="36"/>
-      <c r="K38" s="37"/>
-      <c r="L38" s="35"/>
-      <c r="M38" s="37"/>
-      <c r="N38" s="35"/>
-      <c r="O38" s="37"/>
-      <c r="P38" s="35"/>
-      <c r="Q38" s="36"/>
-      <c r="R38" s="36"/>
-      <c r="S38" s="36"/>
-      <c r="T38" s="37"/>
-      <c r="U38" s="35"/>
-      <c r="V38" s="36"/>
-      <c r="W38" s="37"/>
-      <c r="X38" s="35"/>
-      <c r="Y38" s="36"/>
-      <c r="Z38" s="37"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="38"/>
+      <c r="J38" s="40"/>
+      <c r="K38" s="39"/>
+      <c r="L38" s="38"/>
+      <c r="M38" s="39"/>
+      <c r="N38" s="38"/>
+      <c r="O38" s="39"/>
+      <c r="P38" s="38"/>
+      <c r="Q38" s="40"/>
+      <c r="R38" s="40"/>
+      <c r="S38" s="40"/>
+      <c r="T38" s="39"/>
+      <c r="U38" s="38"/>
+      <c r="V38" s="40"/>
+      <c r="W38" s="39"/>
+      <c r="X38" s="38"/>
+      <c r="Y38" s="40"/>
+      <c r="Z38" s="39"/>
       <c r="AA38" s="10"/>
       <c r="AB38" s="11"/>
     </row>
@@ -8185,29 +8262,29 @@
       <c r="C39" s="16">
         <v>9</v>
       </c>
-      <c r="D39" s="35"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="37"/>
-      <c r="I39" s="35"/>
-      <c r="J39" s="36"/>
-      <c r="K39" s="37"/>
-      <c r="L39" s="35"/>
-      <c r="M39" s="37"/>
-      <c r="N39" s="35"/>
-      <c r="O39" s="37"/>
-      <c r="P39" s="35"/>
-      <c r="Q39" s="36"/>
-      <c r="R39" s="36"/>
-      <c r="S39" s="36"/>
-      <c r="T39" s="37"/>
-      <c r="U39" s="35"/>
-      <c r="V39" s="36"/>
-      <c r="W39" s="37"/>
-      <c r="X39" s="35"/>
-      <c r="Y39" s="36"/>
-      <c r="Z39" s="37"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="38"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="39"/>
+      <c r="L39" s="38"/>
+      <c r="M39" s="39"/>
+      <c r="N39" s="38"/>
+      <c r="O39" s="39"/>
+      <c r="P39" s="38"/>
+      <c r="Q39" s="40"/>
+      <c r="R39" s="40"/>
+      <c r="S39" s="40"/>
+      <c r="T39" s="39"/>
+      <c r="U39" s="38"/>
+      <c r="V39" s="40"/>
+      <c r="W39" s="39"/>
+      <c r="X39" s="38"/>
+      <c r="Y39" s="40"/>
+      <c r="Z39" s="39"/>
       <c r="AA39" s="10"/>
       <c r="AB39" s="11"/>
     </row>
@@ -8216,29 +8293,29 @@
       <c r="C40" s="16">
         <v>10</v>
       </c>
-      <c r="D40" s="35"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="37"/>
-      <c r="I40" s="35"/>
-      <c r="J40" s="36"/>
-      <c r="K40" s="37"/>
-      <c r="L40" s="35"/>
-      <c r="M40" s="37"/>
-      <c r="N40" s="35"/>
-      <c r="O40" s="37"/>
-      <c r="P40" s="35"/>
-      <c r="Q40" s="36"/>
-      <c r="R40" s="36"/>
-      <c r="S40" s="36"/>
-      <c r="T40" s="37"/>
-      <c r="U40" s="35"/>
-      <c r="V40" s="36"/>
-      <c r="W40" s="37"/>
-      <c r="X40" s="35"/>
-      <c r="Y40" s="36"/>
-      <c r="Z40" s="37"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="39"/>
+      <c r="I40" s="38"/>
+      <c r="J40" s="40"/>
+      <c r="K40" s="39"/>
+      <c r="L40" s="38"/>
+      <c r="M40" s="39"/>
+      <c r="N40" s="38"/>
+      <c r="O40" s="39"/>
+      <c r="P40" s="38"/>
+      <c r="Q40" s="40"/>
+      <c r="R40" s="40"/>
+      <c r="S40" s="40"/>
+      <c r="T40" s="39"/>
+      <c r="U40" s="38"/>
+      <c r="V40" s="40"/>
+      <c r="W40" s="39"/>
+      <c r="X40" s="38"/>
+      <c r="Y40" s="40"/>
+      <c r="Z40" s="39"/>
       <c r="AA40" s="10"/>
       <c r="AB40" s="11"/>
     </row>
@@ -8247,29 +8324,29 @@
       <c r="C41" s="16">
         <v>11</v>
       </c>
-      <c r="D41" s="35"/>
-      <c r="E41" s="37"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="36"/>
-      <c r="H41" s="37"/>
-      <c r="I41" s="35"/>
-      <c r="J41" s="36"/>
-      <c r="K41" s="37"/>
-      <c r="L41" s="35"/>
-      <c r="M41" s="37"/>
-      <c r="N41" s="35"/>
-      <c r="O41" s="37"/>
-      <c r="P41" s="35"/>
-      <c r="Q41" s="36"/>
-      <c r="R41" s="36"/>
-      <c r="S41" s="36"/>
-      <c r="T41" s="37"/>
-      <c r="U41" s="35"/>
-      <c r="V41" s="36"/>
-      <c r="W41" s="37"/>
-      <c r="X41" s="35"/>
-      <c r="Y41" s="36"/>
-      <c r="Z41" s="37"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="39"/>
+      <c r="I41" s="38"/>
+      <c r="J41" s="40"/>
+      <c r="K41" s="39"/>
+      <c r="L41" s="38"/>
+      <c r="M41" s="39"/>
+      <c r="N41" s="38"/>
+      <c r="O41" s="39"/>
+      <c r="P41" s="38"/>
+      <c r="Q41" s="40"/>
+      <c r="R41" s="40"/>
+      <c r="S41" s="40"/>
+      <c r="T41" s="39"/>
+      <c r="U41" s="38"/>
+      <c r="V41" s="40"/>
+      <c r="W41" s="39"/>
+      <c r="X41" s="38"/>
+      <c r="Y41" s="40"/>
+      <c r="Z41" s="39"/>
       <c r="AA41" s="10"/>
       <c r="AB41" s="11"/>
     </row>
@@ -8278,29 +8355,29 @@
       <c r="C42" s="16">
         <v>12</v>
       </c>
-      <c r="D42" s="35"/>
-      <c r="E42" s="37"/>
-      <c r="F42" s="35"/>
-      <c r="G42" s="36"/>
-      <c r="H42" s="37"/>
-      <c r="I42" s="35"/>
-      <c r="J42" s="36"/>
-      <c r="K42" s="37"/>
-      <c r="L42" s="35"/>
-      <c r="M42" s="37"/>
-      <c r="N42" s="35"/>
-      <c r="O42" s="37"/>
-      <c r="P42" s="35"/>
-      <c r="Q42" s="36"/>
-      <c r="R42" s="36"/>
-      <c r="S42" s="36"/>
-      <c r="T42" s="37"/>
-      <c r="U42" s="35"/>
-      <c r="V42" s="36"/>
-      <c r="W42" s="37"/>
-      <c r="X42" s="35"/>
-      <c r="Y42" s="36"/>
-      <c r="Z42" s="37"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="40"/>
+      <c r="H42" s="39"/>
+      <c r="I42" s="38"/>
+      <c r="J42" s="40"/>
+      <c r="K42" s="39"/>
+      <c r="L42" s="38"/>
+      <c r="M42" s="39"/>
+      <c r="N42" s="38"/>
+      <c r="O42" s="39"/>
+      <c r="P42" s="38"/>
+      <c r="Q42" s="40"/>
+      <c r="R42" s="40"/>
+      <c r="S42" s="40"/>
+      <c r="T42" s="39"/>
+      <c r="U42" s="38"/>
+      <c r="V42" s="40"/>
+      <c r="W42" s="39"/>
+      <c r="X42" s="38"/>
+      <c r="Y42" s="40"/>
+      <c r="Z42" s="39"/>
       <c r="AA42" s="10"/>
       <c r="AB42" s="11"/>
     </row>
@@ -8309,29 +8386,29 @@
       <c r="C43" s="16">
         <v>13</v>
       </c>
-      <c r="D43" s="35"/>
-      <c r="E43" s="37"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="36"/>
-      <c r="H43" s="37"/>
-      <c r="I43" s="35"/>
-      <c r="J43" s="36"/>
-      <c r="K43" s="37"/>
-      <c r="L43" s="35"/>
-      <c r="M43" s="37"/>
-      <c r="N43" s="35"/>
-      <c r="O43" s="37"/>
-      <c r="P43" s="35"/>
-      <c r="Q43" s="36"/>
-      <c r="R43" s="36"/>
-      <c r="S43" s="36"/>
-      <c r="T43" s="37"/>
-      <c r="U43" s="35"/>
-      <c r="V43" s="36"/>
-      <c r="W43" s="37"/>
-      <c r="X43" s="35"/>
-      <c r="Y43" s="36"/>
-      <c r="Z43" s="37"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="39"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="40"/>
+      <c r="H43" s="39"/>
+      <c r="I43" s="38"/>
+      <c r="J43" s="40"/>
+      <c r="K43" s="39"/>
+      <c r="L43" s="38"/>
+      <c r="M43" s="39"/>
+      <c r="N43" s="38"/>
+      <c r="O43" s="39"/>
+      <c r="P43" s="38"/>
+      <c r="Q43" s="40"/>
+      <c r="R43" s="40"/>
+      <c r="S43" s="40"/>
+      <c r="T43" s="39"/>
+      <c r="U43" s="38"/>
+      <c r="V43" s="40"/>
+      <c r="W43" s="39"/>
+      <c r="X43" s="38"/>
+      <c r="Y43" s="40"/>
+      <c r="Z43" s="39"/>
       <c r="AA43" s="10"/>
       <c r="AB43" s="11"/>
     </row>
@@ -8340,29 +8417,29 @@
       <c r="C44" s="16">
         <v>14</v>
       </c>
-      <c r="D44" s="35"/>
-      <c r="E44" s="37"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="36"/>
-      <c r="H44" s="37"/>
-      <c r="I44" s="35"/>
-      <c r="J44" s="36"/>
-      <c r="K44" s="37"/>
-      <c r="L44" s="35"/>
-      <c r="M44" s="37"/>
-      <c r="N44" s="35"/>
-      <c r="O44" s="37"/>
-      <c r="P44" s="35"/>
-      <c r="Q44" s="36"/>
-      <c r="R44" s="36"/>
-      <c r="S44" s="36"/>
-      <c r="T44" s="37"/>
-      <c r="U44" s="35"/>
-      <c r="V44" s="36"/>
-      <c r="W44" s="37"/>
-      <c r="X44" s="35"/>
-      <c r="Y44" s="36"/>
-      <c r="Z44" s="37"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="39"/>
+      <c r="F44" s="38"/>
+      <c r="G44" s="40"/>
+      <c r="H44" s="39"/>
+      <c r="I44" s="38"/>
+      <c r="J44" s="40"/>
+      <c r="K44" s="39"/>
+      <c r="L44" s="38"/>
+      <c r="M44" s="39"/>
+      <c r="N44" s="38"/>
+      <c r="O44" s="39"/>
+      <c r="P44" s="38"/>
+      <c r="Q44" s="40"/>
+      <c r="R44" s="40"/>
+      <c r="S44" s="40"/>
+      <c r="T44" s="39"/>
+      <c r="U44" s="38"/>
+      <c r="V44" s="40"/>
+      <c r="W44" s="39"/>
+      <c r="X44" s="38"/>
+      <c r="Y44" s="40"/>
+      <c r="Z44" s="39"/>
       <c r="AA44" s="10"/>
       <c r="AB44" s="11"/>
     </row>
@@ -8371,29 +8448,29 @@
       <c r="C45" s="16">
         <v>15</v>
       </c>
-      <c r="D45" s="35"/>
-      <c r="E45" s="37"/>
-      <c r="F45" s="35"/>
-      <c r="G45" s="36"/>
-      <c r="H45" s="37"/>
-      <c r="I45" s="35"/>
-      <c r="J45" s="36"/>
-      <c r="K45" s="37"/>
-      <c r="L45" s="35"/>
-      <c r="M45" s="37"/>
-      <c r="N45" s="35"/>
-      <c r="O45" s="37"/>
-      <c r="P45" s="35"/>
-      <c r="Q45" s="36"/>
-      <c r="R45" s="36"/>
-      <c r="S45" s="36"/>
-      <c r="T45" s="37"/>
-      <c r="U45" s="35"/>
-      <c r="V45" s="36"/>
-      <c r="W45" s="37"/>
-      <c r="X45" s="35"/>
-      <c r="Y45" s="36"/>
-      <c r="Z45" s="37"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="39"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="40"/>
+      <c r="H45" s="39"/>
+      <c r="I45" s="38"/>
+      <c r="J45" s="40"/>
+      <c r="K45" s="39"/>
+      <c r="L45" s="38"/>
+      <c r="M45" s="39"/>
+      <c r="N45" s="38"/>
+      <c r="O45" s="39"/>
+      <c r="P45" s="38"/>
+      <c r="Q45" s="40"/>
+      <c r="R45" s="40"/>
+      <c r="S45" s="40"/>
+      <c r="T45" s="39"/>
+      <c r="U45" s="38"/>
+      <c r="V45" s="40"/>
+      <c r="W45" s="39"/>
+      <c r="X45" s="38"/>
+      <c r="Y45" s="40"/>
+      <c r="Z45" s="39"/>
       <c r="AA45" s="10"/>
       <c r="AB45" s="11"/>
     </row>
@@ -8732,17 +8809,17 @@
       <c r="R60" s="10"/>
       <c r="S60" s="10"/>
       <c r="T60" s="10"/>
-      <c r="U60" s="39" t="s">
+      <c r="U60" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="V60" s="39"/>
-      <c r="W60" s="39" t="s">
+      <c r="V60" s="36"/>
+      <c r="W60" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="X60" s="39"/>
-      <c r="Y60" s="39"/>
-      <c r="Z60" s="39"/>
-      <c r="AA60" s="39"/>
+      <c r="X60" s="36"/>
+      <c r="Y60" s="36"/>
+      <c r="Z60" s="36"/>
+      <c r="AA60" s="36"/>
       <c r="AB60" s="11"/>
     </row>
     <row r="61" spans="2:33">
@@ -8765,17 +8842,17 @@
       <c r="R61" s="10"/>
       <c r="S61" s="10"/>
       <c r="T61" s="10"/>
-      <c r="U61" s="40" t="s">
+      <c r="U61" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="V61" s="40"/>
-      <c r="W61" s="40" t="s">
+      <c r="V61" s="35"/>
+      <c r="W61" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="X61" s="40"/>
-      <c r="Y61" s="40"/>
-      <c r="Z61" s="40"/>
-      <c r="AA61" s="40"/>
+      <c r="X61" s="35"/>
+      <c r="Y61" s="35"/>
+      <c r="Z61" s="35"/>
+      <c r="AA61" s="35"/>
       <c r="AB61" s="11"/>
     </row>
     <row r="62" spans="2:33">
@@ -8798,13 +8875,13 @@
       <c r="R62" s="10"/>
       <c r="S62" s="10"/>
       <c r="T62" s="10"/>
-      <c r="U62" s="39"/>
-      <c r="V62" s="39"/>
-      <c r="W62" s="39"/>
-      <c r="X62" s="39"/>
-      <c r="Y62" s="39"/>
-      <c r="Z62" s="39"/>
-      <c r="AA62" s="39"/>
+      <c r="U62" s="36"/>
+      <c r="V62" s="36"/>
+      <c r="W62" s="36"/>
+      <c r="X62" s="36"/>
+      <c r="Y62" s="36"/>
+      <c r="Z62" s="36"/>
+      <c r="AA62" s="36"/>
       <c r="AB62" s="11"/>
     </row>
     <row r="63" spans="2:33">
@@ -8827,13 +8904,13 @@
       <c r="R63" s="10"/>
       <c r="S63" s="10"/>
       <c r="T63" s="10"/>
-      <c r="U63" s="40"/>
-      <c r="V63" s="40"/>
-      <c r="W63" s="40"/>
-      <c r="X63" s="40"/>
-      <c r="Y63" s="40"/>
-      <c r="Z63" s="40"/>
-      <c r="AA63" s="40"/>
+      <c r="U63" s="35"/>
+      <c r="V63" s="35"/>
+      <c r="W63" s="35"/>
+      <c r="X63" s="35"/>
+      <c r="Y63" s="35"/>
+      <c r="Z63" s="35"/>
+      <c r="AA63" s="35"/>
       <c r="AB63" s="11"/>
     </row>
     <row r="64" spans="2:33">
@@ -8856,13 +8933,13 @@
       <c r="R64" s="10"/>
       <c r="S64" s="10"/>
       <c r="T64" s="10"/>
-      <c r="U64" s="39"/>
-      <c r="V64" s="39"/>
-      <c r="W64" s="39"/>
-      <c r="X64" s="39"/>
-      <c r="Y64" s="39"/>
-      <c r="Z64" s="39"/>
-      <c r="AA64" s="39"/>
+      <c r="U64" s="36"/>
+      <c r="V64" s="36"/>
+      <c r="W64" s="36"/>
+      <c r="X64" s="36"/>
+      <c r="Y64" s="36"/>
+      <c r="Z64" s="36"/>
+      <c r="AA64" s="36"/>
       <c r="AB64" s="11"/>
     </row>
     <row r="65" spans="2:28">
@@ -8885,13 +8962,13 @@
       <c r="R65" s="10"/>
       <c r="S65" s="10"/>
       <c r="T65" s="10"/>
-      <c r="U65" s="40"/>
-      <c r="V65" s="40"/>
-      <c r="W65" s="40"/>
-      <c r="X65" s="40"/>
-      <c r="Y65" s="40"/>
-      <c r="Z65" s="40"/>
-      <c r="AA65" s="40"/>
+      <c r="U65" s="35"/>
+      <c r="V65" s="35"/>
+      <c r="W65" s="35"/>
+      <c r="X65" s="35"/>
+      <c r="Y65" s="35"/>
+      <c r="Z65" s="35"/>
+      <c r="AA65" s="35"/>
       <c r="AB65" s="11"/>
     </row>
     <row r="66" spans="2:28">
@@ -8914,13 +8991,13 @@
       <c r="R66" s="10"/>
       <c r="S66" s="10"/>
       <c r="T66" s="10"/>
-      <c r="U66" s="39"/>
-      <c r="V66" s="39"/>
-      <c r="W66" s="39"/>
-      <c r="X66" s="39"/>
-      <c r="Y66" s="39"/>
-      <c r="Z66" s="39"/>
-      <c r="AA66" s="39"/>
+      <c r="U66" s="36"/>
+      <c r="V66" s="36"/>
+      <c r="W66" s="36"/>
+      <c r="X66" s="36"/>
+      <c r="Y66" s="36"/>
+      <c r="Z66" s="36"/>
+      <c r="AA66" s="36"/>
       <c r="AB66" s="11"/>
     </row>
     <row r="67" spans="2:28">
@@ -8943,13 +9020,13 @@
       <c r="R67" s="10"/>
       <c r="S67" s="10"/>
       <c r="T67" s="10"/>
-      <c r="U67" s="40"/>
-      <c r="V67" s="40"/>
-      <c r="W67" s="40"/>
-      <c r="X67" s="40"/>
-      <c r="Y67" s="40"/>
-      <c r="Z67" s="40"/>
-      <c r="AA67" s="40"/>
+      <c r="U67" s="35"/>
+      <c r="V67" s="35"/>
+      <c r="W67" s="35"/>
+      <c r="X67" s="35"/>
+      <c r="Y67" s="35"/>
+      <c r="Z67" s="35"/>
+      <c r="AA67" s="35"/>
       <c r="AB67" s="11"/>
     </row>
     <row r="68" spans="2:28">
@@ -8972,13 +9049,13 @@
       <c r="R68" s="10"/>
       <c r="S68" s="10"/>
       <c r="T68" s="10"/>
-      <c r="U68" s="39"/>
-      <c r="V68" s="39"/>
-      <c r="W68" s="39"/>
-      <c r="X68" s="39"/>
-      <c r="Y68" s="39"/>
-      <c r="Z68" s="39"/>
-      <c r="AA68" s="39"/>
+      <c r="U68" s="36"/>
+      <c r="V68" s="36"/>
+      <c r="W68" s="36"/>
+      <c r="X68" s="36"/>
+      <c r="Y68" s="36"/>
+      <c r="Z68" s="36"/>
+      <c r="AA68" s="36"/>
       <c r="AB68" s="11"/>
     </row>
     <row r="69" spans="2:28">
@@ -9001,13 +9078,13 @@
       <c r="R69" s="10"/>
       <c r="S69" s="10"/>
       <c r="T69" s="10"/>
-      <c r="U69" s="40"/>
-      <c r="V69" s="40"/>
-      <c r="W69" s="40"/>
-      <c r="X69" s="40"/>
-      <c r="Y69" s="40"/>
-      <c r="Z69" s="40"/>
-      <c r="AA69" s="40"/>
+      <c r="U69" s="35"/>
+      <c r="V69" s="35"/>
+      <c r="W69" s="35"/>
+      <c r="X69" s="35"/>
+      <c r="Y69" s="35"/>
+      <c r="Z69" s="35"/>
+      <c r="AA69" s="35"/>
       <c r="AB69" s="11"/>
     </row>
     <row r="70" spans="2:28">
@@ -9030,13 +9107,13 @@
       <c r="R70" s="10"/>
       <c r="S70" s="10"/>
       <c r="T70" s="10"/>
-      <c r="U70" s="39"/>
-      <c r="V70" s="39"/>
-      <c r="W70" s="39"/>
-      <c r="X70" s="39"/>
-      <c r="Y70" s="39"/>
-      <c r="Z70" s="39"/>
-      <c r="AA70" s="39"/>
+      <c r="U70" s="36"/>
+      <c r="V70" s="36"/>
+      <c r="W70" s="36"/>
+      <c r="X70" s="36"/>
+      <c r="Y70" s="36"/>
+      <c r="Z70" s="36"/>
+      <c r="AA70" s="36"/>
       <c r="AB70" s="11"/>
     </row>
     <row r="71" spans="2:28">
@@ -9059,13 +9136,13 @@
       <c r="R71" s="10"/>
       <c r="S71" s="10"/>
       <c r="T71" s="10"/>
-      <c r="U71" s="40"/>
-      <c r="V71" s="40"/>
-      <c r="W71" s="40"/>
-      <c r="X71" s="40"/>
-      <c r="Y71" s="40"/>
-      <c r="Z71" s="40"/>
-      <c r="AA71" s="40"/>
+      <c r="U71" s="35"/>
+      <c r="V71" s="35"/>
+      <c r="W71" s="35"/>
+      <c r="X71" s="35"/>
+      <c r="Y71" s="35"/>
+      <c r="Z71" s="35"/>
+      <c r="AA71" s="35"/>
       <c r="AB71" s="11"/>
     </row>
     <row r="72" spans="2:28">
@@ -9088,13 +9165,13 @@
       <c r="R72" s="10"/>
       <c r="S72" s="10"/>
       <c r="T72" s="10"/>
-      <c r="U72" s="39"/>
-      <c r="V72" s="39"/>
-      <c r="W72" s="39"/>
-      <c r="X72" s="39"/>
-      <c r="Y72" s="39"/>
-      <c r="Z72" s="39"/>
-      <c r="AA72" s="39"/>
+      <c r="U72" s="36"/>
+      <c r="V72" s="36"/>
+      <c r="W72" s="36"/>
+      <c r="X72" s="36"/>
+      <c r="Y72" s="36"/>
+      <c r="Z72" s="36"/>
+      <c r="AA72" s="36"/>
       <c r="AB72" s="11"/>
     </row>
     <row r="73" spans="2:28">
@@ -9117,13 +9194,13 @@
       <c r="R73" s="10"/>
       <c r="S73" s="10"/>
       <c r="T73" s="10"/>
-      <c r="U73" s="40"/>
-      <c r="V73" s="40"/>
-      <c r="W73" s="40"/>
-      <c r="X73" s="40"/>
-      <c r="Y73" s="40"/>
-      <c r="Z73" s="40"/>
-      <c r="AA73" s="40"/>
+      <c r="U73" s="35"/>
+      <c r="V73" s="35"/>
+      <c r="W73" s="35"/>
+      <c r="X73" s="35"/>
+      <c r="Y73" s="35"/>
+      <c r="Z73" s="35"/>
+      <c r="AA73" s="35"/>
       <c r="AB73" s="11"/>
     </row>
     <row r="74" spans="2:28">
@@ -9146,13 +9223,13 @@
       <c r="R74" s="10"/>
       <c r="S74" s="10"/>
       <c r="T74" s="10"/>
-      <c r="U74" s="39"/>
-      <c r="V74" s="39"/>
-      <c r="W74" s="39"/>
-      <c r="X74" s="39"/>
-      <c r="Y74" s="39"/>
-      <c r="Z74" s="39"/>
-      <c r="AA74" s="39"/>
+      <c r="U74" s="36"/>
+      <c r="V74" s="36"/>
+      <c r="W74" s="36"/>
+      <c r="X74" s="36"/>
+      <c r="Y74" s="36"/>
+      <c r="Z74" s="36"/>
+      <c r="AA74" s="36"/>
       <c r="AB74" s="11"/>
     </row>
     <row r="75" spans="2:28">
@@ -9175,13 +9252,13 @@
       <c r="R75" s="10"/>
       <c r="S75" s="10"/>
       <c r="T75" s="10"/>
-      <c r="U75" s="40"/>
-      <c r="V75" s="40"/>
-      <c r="W75" s="40"/>
-      <c r="X75" s="40"/>
-      <c r="Y75" s="40"/>
-      <c r="Z75" s="40"/>
-      <c r="AA75" s="40"/>
+      <c r="U75" s="35"/>
+      <c r="V75" s="35"/>
+      <c r="W75" s="35"/>
+      <c r="X75" s="35"/>
+      <c r="Y75" s="35"/>
+      <c r="Z75" s="35"/>
+      <c r="AA75" s="35"/>
       <c r="AB75" s="11"/>
     </row>
     <row r="76" spans="2:28">
@@ -9662,17 +9739,17 @@
     </row>
     <row r="95" spans="2:28">
       <c r="B95" s="9"/>
-      <c r="C95" s="39" t="s">
+      <c r="C95" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="D95" s="39"/>
-      <c r="E95" s="39" t="s">
+      <c r="D95" s="36"/>
+      <c r="E95" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="F95" s="39"/>
-      <c r="G95" s="39"/>
-      <c r="H95" s="39"/>
-      <c r="I95" s="39"/>
+      <c r="F95" s="36"/>
+      <c r="G95" s="36"/>
+      <c r="H95" s="36"/>
+      <c r="I95" s="36"/>
       <c r="J95" s="10"/>
       <c r="K95" s="10"/>
       <c r="L95" s="10"/>
@@ -9695,17 +9772,17 @@
     </row>
     <row r="96" spans="2:28">
       <c r="B96" s="9"/>
-      <c r="C96" s="40" t="s">
+      <c r="C96" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="D96" s="40"/>
-      <c r="E96" s="40" t="s">
+      <c r="D96" s="35"/>
+      <c r="E96" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="F96" s="40"/>
-      <c r="G96" s="40"/>
-      <c r="H96" s="40"/>
-      <c r="I96" s="40"/>
+      <c r="F96" s="35"/>
+      <c r="G96" s="35"/>
+      <c r="H96" s="35"/>
+      <c r="I96" s="35"/>
       <c r="J96" s="10"/>
       <c r="K96" s="10"/>
       <c r="L96" s="10"/>
@@ -9728,13 +9805,13 @@
     </row>
     <row r="97" spans="2:28">
       <c r="B97" s="9"/>
-      <c r="C97" s="39"/>
-      <c r="D97" s="39"/>
-      <c r="E97" s="39"/>
-      <c r="F97" s="39"/>
-      <c r="G97" s="39"/>
-      <c r="H97" s="39"/>
-      <c r="I97" s="39"/>
+      <c r="C97" s="36"/>
+      <c r="D97" s="36"/>
+      <c r="E97" s="36"/>
+      <c r="F97" s="36"/>
+      <c r="G97" s="36"/>
+      <c r="H97" s="36"/>
+      <c r="I97" s="36"/>
       <c r="J97" s="10"/>
       <c r="K97" s="10"/>
       <c r="L97" s="10"/>
@@ -9757,13 +9834,13 @@
     </row>
     <row r="98" spans="2:28">
       <c r="B98" s="9"/>
-      <c r="C98" s="40"/>
-      <c r="D98" s="40"/>
-      <c r="E98" s="40"/>
-      <c r="F98" s="40"/>
-      <c r="G98" s="40"/>
-      <c r="H98" s="40"/>
-      <c r="I98" s="40"/>
+      <c r="C98" s="35"/>
+      <c r="D98" s="35"/>
+      <c r="E98" s="35"/>
+      <c r="F98" s="35"/>
+      <c r="G98" s="35"/>
+      <c r="H98" s="35"/>
+      <c r="I98" s="35"/>
       <c r="J98" s="10"/>
       <c r="K98" s="10"/>
       <c r="L98" s="10"/>
@@ -9786,13 +9863,13 @@
     </row>
     <row r="99" spans="2:28">
       <c r="B99" s="9"/>
-      <c r="C99" s="39"/>
-      <c r="D99" s="39"/>
-      <c r="E99" s="39"/>
-      <c r="F99" s="39"/>
-      <c r="G99" s="39"/>
-      <c r="H99" s="39"/>
-      <c r="I99" s="39"/>
+      <c r="C99" s="36"/>
+      <c r="D99" s="36"/>
+      <c r="E99" s="36"/>
+      <c r="F99" s="36"/>
+      <c r="G99" s="36"/>
+      <c r="H99" s="36"/>
+      <c r="I99" s="36"/>
       <c r="J99" s="10"/>
       <c r="K99" s="10"/>
       <c r="L99" s="10"/>
@@ -9815,13 +9892,13 @@
     </row>
     <row r="100" spans="2:28">
       <c r="B100" s="9"/>
-      <c r="C100" s="40"/>
-      <c r="D100" s="40"/>
-      <c r="E100" s="40"/>
-      <c r="F100" s="40"/>
-      <c r="G100" s="40"/>
-      <c r="H100" s="40"/>
-      <c r="I100" s="40"/>
+      <c r="C100" s="35"/>
+      <c r="D100" s="35"/>
+      <c r="E100" s="35"/>
+      <c r="F100" s="35"/>
+      <c r="G100" s="35"/>
+      <c r="H100" s="35"/>
+      <c r="I100" s="35"/>
       <c r="J100" s="10"/>
       <c r="K100" s="10"/>
       <c r="L100" s="10"/>
@@ -9844,13 +9921,13 @@
     </row>
     <row r="101" spans="2:28">
       <c r="B101" s="9"/>
-      <c r="C101" s="39"/>
-      <c r="D101" s="39"/>
-      <c r="E101" s="39"/>
-      <c r="F101" s="39"/>
-      <c r="G101" s="39"/>
-      <c r="H101" s="39"/>
-      <c r="I101" s="39"/>
+      <c r="C101" s="36"/>
+      <c r="D101" s="36"/>
+      <c r="E101" s="36"/>
+      <c r="F101" s="36"/>
+      <c r="G101" s="36"/>
+      <c r="H101" s="36"/>
+      <c r="I101" s="36"/>
       <c r="J101" s="10"/>
       <c r="K101" s="10"/>
       <c r="L101" s="10"/>
@@ -9873,13 +9950,13 @@
     </row>
     <row r="102" spans="2:28">
       <c r="B102" s="9"/>
-      <c r="C102" s="40"/>
-      <c r="D102" s="40"/>
-      <c r="E102" s="40"/>
-      <c r="F102" s="40"/>
-      <c r="G102" s="40"/>
-      <c r="H102" s="40"/>
-      <c r="I102" s="40"/>
+      <c r="C102" s="35"/>
+      <c r="D102" s="35"/>
+      <c r="E102" s="35"/>
+      <c r="F102" s="35"/>
+      <c r="G102" s="35"/>
+      <c r="H102" s="35"/>
+      <c r="I102" s="35"/>
       <c r="J102" s="10"/>
       <c r="K102" s="10"/>
       <c r="L102" s="10"/>
@@ -9902,13 +9979,13 @@
     </row>
     <row r="103" spans="2:28">
       <c r="B103" s="9"/>
-      <c r="C103" s="39"/>
-      <c r="D103" s="39"/>
-      <c r="E103" s="39"/>
-      <c r="F103" s="39"/>
-      <c r="G103" s="39"/>
-      <c r="H103" s="39"/>
-      <c r="I103" s="39"/>
+      <c r="C103" s="36"/>
+      <c r="D103" s="36"/>
+      <c r="E103" s="36"/>
+      <c r="F103" s="36"/>
+      <c r="G103" s="36"/>
+      <c r="H103" s="36"/>
+      <c r="I103" s="36"/>
       <c r="J103" s="10"/>
       <c r="K103" s="10"/>
       <c r="L103" s="10"/>
@@ -10762,75 +10839,95 @@
     </row>
   </sheetData>
   <mergeCells count="182">
-    <mergeCell ref="B113:AB113"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="E100:I100"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="E101:I101"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="E102:I102"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="E103:I103"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="E95:I95"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="E96:I96"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="E97:I97"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="E98:I98"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="E99:I99"/>
-    <mergeCell ref="U75:V75"/>
-    <mergeCell ref="U62:V62"/>
-    <mergeCell ref="U64:V64"/>
-    <mergeCell ref="U66:V66"/>
-    <mergeCell ref="U68:V68"/>
-    <mergeCell ref="U70:V70"/>
-    <mergeCell ref="U72:V72"/>
-    <mergeCell ref="U74:V74"/>
-    <mergeCell ref="W61:AA61"/>
-    <mergeCell ref="W63:AA63"/>
-    <mergeCell ref="W65:AA65"/>
-    <mergeCell ref="W67:AA67"/>
-    <mergeCell ref="W69:AA69"/>
-    <mergeCell ref="W71:AA71"/>
-    <mergeCell ref="W73:AA73"/>
-    <mergeCell ref="W75:AA75"/>
-    <mergeCell ref="W62:AA62"/>
-    <mergeCell ref="W64:AA64"/>
-    <mergeCell ref="W66:AA66"/>
-    <mergeCell ref="W68:AA68"/>
-    <mergeCell ref="W70:AA70"/>
-    <mergeCell ref="W72:AA72"/>
-    <mergeCell ref="W74:AA74"/>
-    <mergeCell ref="U60:V60"/>
-    <mergeCell ref="W60:AA60"/>
-    <mergeCell ref="U61:V61"/>
-    <mergeCell ref="U63:V63"/>
-    <mergeCell ref="U65:V65"/>
-    <mergeCell ref="U67:V67"/>
-    <mergeCell ref="U69:V69"/>
-    <mergeCell ref="U71:V71"/>
-    <mergeCell ref="U73:V73"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="U30:W30"/>
-    <mergeCell ref="X30:Z30"/>
-    <mergeCell ref="P30:T30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="X34:Z34"/>
-    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="B83:AB83"/>
+    <mergeCell ref="B25:AB25"/>
+    <mergeCell ref="B55:AB55"/>
+    <mergeCell ref="P38:T38"/>
+    <mergeCell ref="P39:T39"/>
+    <mergeCell ref="P40:T40"/>
+    <mergeCell ref="P41:T41"/>
+    <mergeCell ref="P42:T42"/>
+    <mergeCell ref="P43:T43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="P31:T31"/>
+    <mergeCell ref="P32:T32"/>
+    <mergeCell ref="P33:T33"/>
+    <mergeCell ref="P34:T34"/>
+    <mergeCell ref="P35:T35"/>
+    <mergeCell ref="P36:T36"/>
+    <mergeCell ref="P37:T37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="X45:Z45"/>
+    <mergeCell ref="U45:W45"/>
+    <mergeCell ref="X31:Z31"/>
+    <mergeCell ref="X32:Z32"/>
+    <mergeCell ref="X33:Z33"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="X39:Z39"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="U43:W43"/>
+    <mergeCell ref="P45:T45"/>
+    <mergeCell ref="I44:K44"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="X35:Z35"/>
+    <mergeCell ref="X36:Z36"/>
+    <mergeCell ref="X37:Z37"/>
+    <mergeCell ref="X38:Z38"/>
+    <mergeCell ref="U38:W38"/>
+    <mergeCell ref="U39:W39"/>
+    <mergeCell ref="U40:W40"/>
+    <mergeCell ref="U41:W41"/>
+    <mergeCell ref="X40:Z40"/>
+    <mergeCell ref="X41:Z41"/>
+    <mergeCell ref="X42:Z42"/>
+    <mergeCell ref="X43:Z43"/>
+    <mergeCell ref="X44:Z44"/>
+    <mergeCell ref="U44:W44"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="U42:W42"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="I45:K45"/>
+    <mergeCell ref="U31:W31"/>
+    <mergeCell ref="U32:W32"/>
+    <mergeCell ref="U33:W33"/>
+    <mergeCell ref="U34:W34"/>
+    <mergeCell ref="U35:W35"/>
+    <mergeCell ref="U36:W36"/>
+    <mergeCell ref="U37:W37"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="P44:T44"/>
     <mergeCell ref="D43:E43"/>
     <mergeCell ref="D44:E44"/>
     <mergeCell ref="D45:E45"/>
@@ -10855,95 +10952,75 @@
     <mergeCell ref="F39:H39"/>
     <mergeCell ref="F40:H40"/>
     <mergeCell ref="F41:H41"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="U42:W42"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="I45:K45"/>
-    <mergeCell ref="U31:W31"/>
-    <mergeCell ref="U32:W32"/>
-    <mergeCell ref="U33:W33"/>
-    <mergeCell ref="U34:W34"/>
-    <mergeCell ref="U35:W35"/>
-    <mergeCell ref="U36:W36"/>
-    <mergeCell ref="U37:W37"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="I38:K38"/>
-    <mergeCell ref="I39:K39"/>
-    <mergeCell ref="I40:K40"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="I42:K42"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="P44:T44"/>
-    <mergeCell ref="I44:K44"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="X35:Z35"/>
-    <mergeCell ref="X36:Z36"/>
-    <mergeCell ref="X37:Z37"/>
-    <mergeCell ref="X38:Z38"/>
-    <mergeCell ref="U38:W38"/>
-    <mergeCell ref="U39:W39"/>
-    <mergeCell ref="U40:W40"/>
-    <mergeCell ref="U41:W41"/>
-    <mergeCell ref="X40:Z40"/>
-    <mergeCell ref="X41:Z41"/>
-    <mergeCell ref="X42:Z42"/>
-    <mergeCell ref="X43:Z43"/>
-    <mergeCell ref="X44:Z44"/>
-    <mergeCell ref="U44:W44"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="U45:W45"/>
-    <mergeCell ref="X31:Z31"/>
-    <mergeCell ref="X32:Z32"/>
-    <mergeCell ref="X33:Z33"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="X39:Z39"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="U43:W43"/>
-    <mergeCell ref="P45:T45"/>
-    <mergeCell ref="B83:AB83"/>
-    <mergeCell ref="B25:AB25"/>
-    <mergeCell ref="B55:AB55"/>
-    <mergeCell ref="P38:T38"/>
-    <mergeCell ref="P39:T39"/>
-    <mergeCell ref="P40:T40"/>
-    <mergeCell ref="P41:T41"/>
-    <mergeCell ref="P42:T42"/>
-    <mergeCell ref="P43:T43"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="P31:T31"/>
-    <mergeCell ref="P32:T32"/>
-    <mergeCell ref="P33:T33"/>
-    <mergeCell ref="P34:T34"/>
-    <mergeCell ref="P35:T35"/>
-    <mergeCell ref="P36:T36"/>
-    <mergeCell ref="P37:T37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="X45:Z45"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="U30:W30"/>
+    <mergeCell ref="X30:Z30"/>
+    <mergeCell ref="P30:T30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="X34:Z34"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="U60:V60"/>
+    <mergeCell ref="W60:AA60"/>
+    <mergeCell ref="U61:V61"/>
+    <mergeCell ref="U63:V63"/>
+    <mergeCell ref="U65:V65"/>
+    <mergeCell ref="U67:V67"/>
+    <mergeCell ref="U69:V69"/>
+    <mergeCell ref="U71:V71"/>
+    <mergeCell ref="U73:V73"/>
+    <mergeCell ref="U75:V75"/>
+    <mergeCell ref="U62:V62"/>
+    <mergeCell ref="U64:V64"/>
+    <mergeCell ref="U66:V66"/>
+    <mergeCell ref="U68:V68"/>
+    <mergeCell ref="U70:V70"/>
+    <mergeCell ref="U72:V72"/>
+    <mergeCell ref="U74:V74"/>
+    <mergeCell ref="W61:AA61"/>
+    <mergeCell ref="W63:AA63"/>
+    <mergeCell ref="W65:AA65"/>
+    <mergeCell ref="W67:AA67"/>
+    <mergeCell ref="W69:AA69"/>
+    <mergeCell ref="W71:AA71"/>
+    <mergeCell ref="W73:AA73"/>
+    <mergeCell ref="W75:AA75"/>
+    <mergeCell ref="W62:AA62"/>
+    <mergeCell ref="W64:AA64"/>
+    <mergeCell ref="W66:AA66"/>
+    <mergeCell ref="W68:AA68"/>
+    <mergeCell ref="W70:AA70"/>
+    <mergeCell ref="W72:AA72"/>
+    <mergeCell ref="W74:AA74"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="E95:I95"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="E96:I96"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="E97:I97"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="E98:I98"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="E99:I99"/>
+    <mergeCell ref="B113:AB113"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="E100:I100"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="E101:I101"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="E102:I102"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="E103:I103"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.12" right="0.2" top="0.42" bottom="0.36" header="0.3" footer="0.13"/>
@@ -11489,6 +11566,63 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="M1:W8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="13:23">
+      <c r="R1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="13:23">
+      <c r="T3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="13:23">
+      <c r="M4" t="s">
+        <v>85</v>
+      </c>
+      <c r="N4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="13:23">
+      <c r="V5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="13:23">
+      <c r="Q6" t="s">
+        <v>92</v>
+      </c>
+      <c r="S6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="13:23">
+      <c r="W7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="13:23">
+      <c r="W8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM86"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
